--- a/Excels/Test/CS测试表.xlsx
+++ b/Excels/Test/CS测试表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="11790"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="测试表" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>json</t>
+    <t>dict&lt;string,int[]&gt;</t>
   </si>
   <si>
     <t>id</t>
@@ -64,7 +64,7 @@
     <t>usa</t>
   </si>
   <si>
-    <t>{"哒哒星":"你好,我是不不不","星哥":3}</t>
+    <t>{"星哥":[1,2,3]}</t>
   </si>
   <si>
     <t>dadaxing</t>
@@ -76,7 +76,7 @@
     <t>sb</t>
   </si>
   <si>
-    <t>{"星仔不不":4}</t>
+    <t>{"星仔不不":[4,5,6]}</t>
   </si>
 </sst>
 </file>
@@ -84,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -109,39 +109,54 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,64 +170,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,8 +230,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,21 +247,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,31 +274,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,13 +418,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,133 +442,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,24 +485,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,17 +518,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,11 +559,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,151 +585,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="28.5" spans="1:5">
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="3">
         <v>2</v>
       </c>

--- a/Excels/Test/CS测试表.xlsx
+++ b/Excels/Test/CS测试表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>#</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>translation</t>
   </si>
   <si>
     <t>dict&lt;string,int[]&gt;</t>
@@ -85,8 +88,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -116,6 +119,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -123,13 +157,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +166,36 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -178,7 +235,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,37 +245,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,29 +255,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -274,6 +277,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -286,66 +403,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -358,103 +427,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,6 +512,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -551,32 +578,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,145 +594,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,7 +1104,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1135,42 +1138,42 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" ht="12" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
@@ -1178,11 +1181,11 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -1191,14 +1194,14 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:5">
@@ -1206,16 +1209,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:5">

--- a/Excels/Test/CS测试表.xlsx
+++ b/Excels/Test/CS测试表.xlsx
@@ -28,7 +28,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>translation</t>
+    <t>lang</t>
   </si>
   <si>
     <t>dict&lt;string,int[]&gt;</t>
@@ -119,9 +119,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,15 +128,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,52 +136,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,7 +158,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,24 +211,48 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -277,49 +277,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,133 +457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,17 +486,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -508,21 +497,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,6 +534,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -574,15 +583,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -594,10 +594,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,16 +606,16 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,115 +624,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>

--- a/Excels/Test/CS测试表.xlsx
+++ b/Excels/Test/CS测试表.xlsx
@@ -19,7 +19,7 @@
     <t>#</t>
   </si>
   <si>
-    <t>#name test</t>
+    <t>#name CfgTest</t>
   </si>
   <si>
     <t>#index unique id</t>
@@ -43,7 +43,7 @@
     <t>country</t>
   </si>
   <si>
-    <t>age_dict</t>
+    <t>ageDict</t>
   </si>
   <si>
     <t>名字</t>
@@ -87,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -120,29 +120,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,8 +148,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -165,10 +233,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,82 +255,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -277,37 +277,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,145 +403,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,17 +486,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,15 +500,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,6 +519,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -541,15 +556,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,17 +575,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,151 +588,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
